--- a/0202/bin/Debug/data/data_appl.xlsx
+++ b/0202/bin/Debug/data/data_appl.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="7200" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="7800" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -393,7 +393,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O44"/>
+  <dimension ref="A1:O45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H26" sqref="H26"/>
@@ -2486,6 +2486,14 @@
         <v>1</v>
       </c>
     </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>1</v>
+      </c>
+      <c r="B45">
+        <v>185</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
